--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02B1BA-75AF-4CB3-BABC-640C99D8ABD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51CCFD4-B019-4D07-91D0-B9887FC0A730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,21 @@
   <si>
     <t>mdo</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_mileage5</t>
+  </si>
+  <si>
+    <t>exchange_mileage6</t>
+  </si>
+  <si>
+    <t>exchange_mileage7</t>
+  </si>
+  <si>
+    <t>exchange_mileage8</t>
+  </si>
+  <si>
+    <t>exchange_mileage9</t>
   </si>
 </sst>
 </file>
@@ -468,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,6 +653,136 @@
         <v>200</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>150000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>150000</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>30000</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>88</v>
+      </c>
+      <c r="C10">
+        <v>30000</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9001</v>
+      </c>
+      <c r="C11">
+        <v>30000</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51CCFD4-B019-4D07-91D0-B9887FC0A730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2031C31D-22C4-4ACD-A6E9-639B2C8C069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,51 @@
   </si>
   <si>
     <t>exchange_mileage9</t>
+  </si>
+  <si>
+    <t>영혼석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange_mileage10</t>
+  </si>
+  <si>
+    <t>exchange_mileage11</t>
+  </si>
+  <si>
+    <t>exchange_mileage12</t>
   </si>
 </sst>
 </file>
@@ -483,16 +528,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
@@ -783,6 +829,162 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9023</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9009</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9017</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>9010</v>
+      </c>
+      <c r="C15">
+        <v>1500</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>9008</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>9016</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2031C31D-22C4-4ACD-A6E9-639B2C8C069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B9D627-29C5-4309-B1DB-9940BF9A324B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,22 @@
   </si>
   <si>
     <t>exchange_mileage12</t>
+  </si>
+  <si>
+    <t>eventMultipleValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -210,8 +226,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -541,9 +563,12 @@
     <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +593,14 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -594,8 +625,14 @@
       <c r="H2">
         <v>600</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -620,8 +657,14 @@
       <c r="H3">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -646,8 +689,14 @@
       <c r="H4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -672,8 +721,14 @@
       <c r="H5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -698,8 +753,14 @@
       <c r="H6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -724,8 +785,14 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -750,8 +817,14 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -776,8 +849,14 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -802,8 +881,14 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -828,8 +913,14 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -854,8 +945,14 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -880,8 +977,14 @@
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -906,8 +1009,14 @@
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -932,8 +1041,14 @@
       <c r="H15">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -958,8 +1073,14 @@
       <c r="H16">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -983,6 +1104,12 @@
       </c>
       <c r="H17">
         <v>200</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MileageReward.xlsx
+++ b/Assets/06.Table/MileageReward.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B9D627-29C5-4309-B1DB-9940BF9A324B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F45CD-8FF3-4DF8-9CAE-E9313CDC591B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MileageReward" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MileageReward!$A$1:$K$21</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +183,41 @@
   </si>
   <si>
     <t>2023-05-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불 소탕권</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>요도 해방서</t>
+  </si>
+  <si>
+    <t>여우불</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +278,22 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -550,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +621,7 @@
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,156 +652,171 @@
       <c r="J1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>9028</v>
       </c>
       <c r="C2">
-        <v>1200</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H2">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>9026</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>9028</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="H4">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>9027</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9001</v>
+        <v>9016</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -759,348 +827,381 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>9008</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="C7">
-        <v>150000</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
       <c r="H7">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>9010</v>
       </c>
       <c r="C8">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>9017</v>
       </c>
       <c r="C9">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>9009</v>
       </c>
       <c r="C10">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9001</v>
+        <v>9023</v>
       </c>
       <c r="C11">
-        <v>30000</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9023</v>
+        <v>9001</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>30000</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9009</v>
+        <v>88</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>30000</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9017</v>
+        <v>73</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>30000</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9010</v>
+        <v>46</v>
       </c>
       <c r="C15">
-        <v>1500</v>
+        <v>150000</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H15">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9008</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>500</v>
+        <v>150000</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H16">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9016</v>
+        <v>9001</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H17">
         <v>200</v>
@@ -1111,9 +1212,167 @@
       <c r="J17">
         <v>0</v>
       </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>88</v>
+      </c>
+      <c r="C18">
+        <v>200</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>73</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1200</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>600</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K21" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
+      <sortCondition descending="1" ref="A1:A21"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K18:K21">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($K18=FALSE,$K18&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K17">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($K1=FALSE,$K1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
